--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ECD354-6F66-48CD-9436-DC6DA4616EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEC4C46-19A5-403E-9B82-AC24818218E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>date</t>
   </si>
@@ -75,21 +75,12 @@
     <t>finish数学</t>
   </si>
   <si>
-    <t>新增进度0.5</t>
-  </si>
-  <si>
-    <t>新增进度0.75</t>
-  </si>
-  <si>
     <t>BS</t>
   </si>
   <si>
     <t>each semester each subject 10 ribbons</t>
   </si>
   <si>
-    <t>6*21</t>
-  </si>
-  <si>
     <t>练字</t>
   </si>
   <si>
@@ -150,31 +141,31 @@
     <t>4章</t>
   </si>
   <si>
-    <t>3*6</t>
-  </si>
-  <si>
     <t>On Stall</t>
   </si>
   <si>
     <t>Not queued yet</t>
   </si>
   <si>
-    <t>6*17</t>
-  </si>
-  <si>
-    <t>新增6</t>
-  </si>
-  <si>
     <t>Finished</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>每天1(10*3+1000)或R</t>
   </si>
   <si>
-    <t xml:space="preserve">None this week </t>
+    <t>end</t>
+  </si>
+  <si>
+    <t>6*16+10*5</t>
+  </si>
+  <si>
+    <t>6*16+10*1</t>
+  </si>
+  <si>
+    <t>3*7</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -547,15 +538,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -563,13 +555,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44351</v>
+        <v>44360</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -602,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -610,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3">
         <v>58</v>
@@ -629,6 +621,9 @@
       </c>
       <c r="H3" s="3">
         <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -655,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -684,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -695,16 +690,16 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -715,19 +710,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
+      <c r="E7" s="1">
+        <v>10</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -741,14 +736,14 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -765,15 +760,15 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -785,30 +780,30 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3">
         <v>15500</v>
       </c>
       <c r="D10" s="3">
-        <v>14036</v>
+        <v>14075</v>
       </c>
       <c r="E10" s="3">
-        <v>14075</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>14036</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>14055</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -816,17 +811,17 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -838,18 +833,18 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
@@ -867,25 +862,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
+      <c r="G13" s="1">
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -893,13 +888,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -917,7 +912,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.25">
+      <c r="XFD1048576" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEC4C46-19A5-403E-9B82-AC24818218E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E0BCA7E-52DA-458A-BB23-5CB955EEC2D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,158 +26,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>date</t>
   </si>
   <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>milestone</t>
+  </si>
+  <si>
+    <t>学期目标</t>
+  </si>
+  <si>
+    <t>当前完成</t>
+  </si>
+  <si>
+    <t>本周目标</t>
+  </si>
+  <si>
+    <t>本周完成</t>
+  </si>
+  <si>
+    <t>编程</t>
+  </si>
+  <si>
+    <t>usaco hist, fin 2018~2019 Bronze and maybe silver</t>
+  </si>
+  <si>
+    <t>奥数</t>
+  </si>
+  <si>
+    <t>finish精讲与测试7年级</t>
+  </si>
+  <si>
+    <t>数(中考)</t>
+  </si>
+  <si>
+    <t>finish数学</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>each semester each subject 10 ribbons</t>
+  </si>
+  <si>
+    <t>练字</t>
+  </si>
+  <si>
+    <t>3*8</t>
+  </si>
+  <si>
+    <t>足球队</t>
+  </si>
+  <si>
+    <t>开始训练</t>
+  </si>
+  <si>
+    <t>完成训练</t>
+  </si>
+  <si>
+    <t>墨墨</t>
+  </si>
+  <si>
+    <t>积累单词</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>writing better</t>
+  </si>
+  <si>
+    <t>学而思</t>
+  </si>
+  <si>
+    <t>每节课“超神”（连续答对7题）</t>
+  </si>
+  <si>
+    <t>做完每周作业</t>
+  </si>
+  <si>
+    <t>运动</t>
+  </si>
+  <si>
+    <t>拳击(俯卧撑跳绳)或Ring Fit完成</t>
+  </si>
+  <si>
+    <t>每天做其中一个</t>
+  </si>
+  <si>
+    <t>finish book</t>
+  </si>
+  <si>
+    <t>index book</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>usaco traning: fin C3</t>
+  </si>
+  <si>
+    <t>4章</t>
+  </si>
+  <si>
+    <t>On Stall</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>每天1(10*3+1000)或R</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>6*16+10*5</t>
+  </si>
+  <si>
+    <t>6*16+10*1</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*7+1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Remaining weeks</t>
-  </si>
-  <si>
-    <t>类别</t>
-  </si>
-  <si>
-    <t>milestone</t>
-  </si>
-  <si>
-    <t>学期目标</t>
-  </si>
-  <si>
-    <t>当前完成</t>
-  </si>
-  <si>
-    <t>本周目标</t>
-  </si>
-  <si>
-    <t>本周完成</t>
-  </si>
-  <si>
-    <t>今天目标</t>
-  </si>
-  <si>
-    <t>今天完成</t>
-  </si>
-  <si>
-    <t>编程</t>
-  </si>
-  <si>
-    <t>usaco hist, fin 2018~2019 Bronze and maybe silver</t>
-  </si>
-  <si>
-    <t>奥数</t>
-  </si>
-  <si>
-    <t>finish精讲与测试7年级</t>
-  </si>
-  <si>
-    <t>数(中考)</t>
-  </si>
-  <si>
-    <t>finish数学</t>
-  </si>
-  <si>
-    <t>BS</t>
-  </si>
-  <si>
-    <t>each semester each subject 10 ribbons</t>
-  </si>
-  <si>
-    <t>练字</t>
-  </si>
-  <si>
-    <t>3*8</t>
-  </si>
-  <si>
-    <t>足球队</t>
-  </si>
-  <si>
-    <t>开始训练</t>
-  </si>
-  <si>
-    <t>完成训练</t>
-  </si>
-  <si>
-    <t>墨墨</t>
-  </si>
-  <si>
-    <t>积累单词</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>writing better</t>
-  </si>
-  <si>
-    <t>学而思</t>
-  </si>
-  <si>
-    <t>每节课“超神”（连续答对7题）</t>
-  </si>
-  <si>
-    <t>做完每周作业</t>
-  </si>
-  <si>
-    <t>运动</t>
-  </si>
-  <si>
-    <t>拳击(俯卧撑跳绳)或Ring Fit完成</t>
-  </si>
-  <si>
-    <t>每天做其中一个</t>
-  </si>
-  <si>
-    <t>finish book</t>
-  </si>
-  <si>
-    <t>index book</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>usaco traning: fin C3</t>
-  </si>
-  <si>
-    <t>4章</t>
-  </si>
-  <si>
-    <t>On Stall</t>
-  </si>
-  <si>
-    <t>Not queued yet</t>
-  </si>
-  <si>
-    <t>Finished</t>
-  </si>
-  <si>
-    <t>每天1(10*3+1000)或R</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>6*16+10*5</t>
-  </si>
-  <si>
-    <t>6*16+10*1</t>
-  </si>
-  <si>
-    <t>3*7</t>
-  </si>
-  <si>
-    <t>?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dunno if there are classes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目标</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>37+20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -191,6 +244,34 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -224,9 +305,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -242,7 +329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -540,69 +627,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="226" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="226" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44360</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
+        <v>44365</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44366</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3">
         <v>58</v>
@@ -623,15 +713,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3">
@@ -650,15 +740,15 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>10</v>
@@ -679,18 +769,18 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
@@ -699,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -708,18 +798,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
@@ -727,29 +817,29 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -758,63 +848,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C10" s="3">
         <v>15500</v>
       </c>
       <c r="D10" s="3">
-        <v>14075</v>
+        <v>14118</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
@@ -833,18 +923,18 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
@@ -860,48 +950,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -911,16 +1001,15 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3">
       <c r="XFD1048576" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDZ\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E0BCA7E-52DA-458A-BB23-5CB955EEC2D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05459B53-E6B3-40E3-B8FC-443C88D5E6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
+    <workbookView xWindow="2730" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>date</t>
   </si>
@@ -148,14 +147,7 @@
     <t>6*16+10*5</t>
   </si>
   <si>
-    <t>6*16+10*1</t>
-  </si>
-  <si>
     <t>完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3*7+1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -213,23 +205,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>37+20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4+6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>6*16+10*2</t>
+  </si>
+  <si>
+    <t>4+4</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>18+20+45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -247,7 +243,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -313,7 +309,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -329,7 +325,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -627,38 +623,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="226" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="13.58203125" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44365</v>
+        <v>44372</v>
       </c>
       <c r="C1" s="2">
-        <v>44366</v>
+        <v>44373</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -678,16 +674,16 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -716,7 +712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -743,7 +739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -772,7 +768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -783,13 +779,13 @@
         <v>34</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -798,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -809,22 +805,22 @@
         <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -833,13 +829,13 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -848,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -873,7 +869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -884,22 +880,22 @@
         <v>15500</v>
       </c>
       <c r="D10" s="3">
-        <v>14118</v>
-      </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>43</v>
+        <v>14218</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -923,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -938,7 +934,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -950,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -976,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -990,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1002,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="16384:16384">
       <c r="XFD1048576" t="s">
         <v>38</v>
       </c>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05459B53-E6B3-40E3-B8FC-443C88D5E6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC25F76-8ABA-40CB-9B17-199E43305B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>date</t>
   </si>
@@ -75,9 +75,6 @@
     <t>练字</t>
   </si>
   <si>
-    <t>3*8</t>
-  </si>
-  <si>
     <t>足球队</t>
   </si>
   <si>
@@ -102,24 +99,15 @@
     <t>学而思</t>
   </si>
   <si>
-    <t>每节课“超神”（连续答对7题）</t>
-  </si>
-  <si>
     <t>做完每周作业</t>
   </si>
   <si>
     <t>运动</t>
   </si>
   <si>
-    <t>拳击(俯卧撑跳绳)或Ring Fit完成</t>
-  </si>
-  <si>
     <t>每天做其中一个</t>
   </si>
   <si>
-    <t>finish book</t>
-  </si>
-  <si>
     <t>index book</t>
   </si>
   <si>
@@ -129,9 +117,6 @@
     <t>usaco traning: fin C3</t>
   </si>
   <si>
-    <t>4章</t>
-  </si>
-  <si>
     <t>On Stall</t>
   </si>
   <si>
@@ -142,9 +127,6 @@
   </si>
   <si>
     <t>end</t>
-  </si>
-  <si>
-    <t>6*16+10*5</t>
   </si>
   <si>
     <t>完成</t>
@@ -205,9 +187,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>6*16+10*2</t>
-  </si>
-  <si>
     <t>4+4</t>
   </si>
   <si>
@@ -215,6 +194,9 @@
   </si>
   <si>
     <t>18+20+45</t>
+  </si>
+  <si>
+    <t>平均完成</t>
   </si>
 </sst>
 </file>
@@ -624,17 +606,17 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +627,7 @@
         <v>44373</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1">
         <v>1</v>
@@ -653,8 +635,9 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -667,28 +650,31 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3">
         <v>58</v>
@@ -697,6 +683,7 @@
         <v>58</v>
       </c>
       <c r="E3" s="3">
+        <f>(C3-D3)/E1</f>
         <v>0</v>
       </c>
       <c r="F3" s="3">
@@ -708,11 +695,14 @@
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -724,6 +714,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3">
+        <f>(C4-D4)/E1</f>
         <v>0</v>
       </c>
       <c r="F4" s="3">
@@ -735,11 +726,14 @@
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -753,128 +747,149 @@
         <v>10</v>
       </c>
       <c r="E5" s="3">
+        <f>(C5-D5)/E1</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
+      <c r="C6" s="1">
+        <v>4</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
       </c>
       <c r="E6" s="3">
+        <f>(C6-D6)/E1</f>
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1">
+        <f>6*16+10*3</f>
+        <v>126</v>
+      </c>
+      <c r="D7" s="1">
+        <f>6*16+10*2</f>
+        <v>116</v>
+      </c>
+      <c r="E7" s="3">
+        <f>(C7-D7)/E1</f>
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="3">
+        <f>3*8</f>
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <f>3*8</f>
+        <v>24</v>
+      </c>
+      <c r="E8" s="3">
+        <f>(C8-D8)/E1</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="3">
         <v>15500</v>
@@ -882,31 +897,36 @@
       <c r="D10" s="3">
         <v>14218</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>47</v>
+      <c r="E10" s="3">
+        <f>(C10-D10)/E1</f>
+        <v>1282</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3">
+        <f>(C11-D11)/E1</f>
         <v>0</v>
       </c>
       <c r="F11" s="3">
@@ -918,89 +938,104 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <f>(C12-D12)/E1</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <f>(C13-D13)/E1</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
+      <c r="C14" s="3">
+        <v>1</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <f>(C14-D14)/E1</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="1048576" spans="16384:16384">
       <c r="XFD1048576" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC25F76-8ABA-40CB-9B17-199E43305B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A576FB2E-F3A7-409C-80BD-54959393FE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
   </bookViews>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="XEO1048560" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="XFD1048576" sqref="XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -777,11 +777,11 @@
         <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3">
         <f>(C6-D6)/E1</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A576FB2E-F3A7-409C-80BD-54959393FE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FD9000-9CFA-43EE-8170-970B14E25487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>date</t>
   </si>
@@ -33,12 +33,6 @@
     <t>类别</t>
   </si>
   <si>
-    <t>milestone</t>
-  </si>
-  <si>
-    <t>学期目标</t>
-  </si>
-  <si>
     <t>当前完成</t>
   </si>
   <si>
@@ -51,21 +45,12 @@
     <t>编程</t>
   </si>
   <si>
-    <t>usaco hist, fin 2018~2019 Bronze and maybe silver</t>
-  </si>
-  <si>
     <t>奥数</t>
   </si>
   <si>
-    <t>finish精讲与测试7年级</t>
-  </si>
-  <si>
     <t>数(中考)</t>
   </si>
   <si>
-    <t>finish数学</t>
-  </si>
-  <si>
     <t>BS</t>
   </si>
   <si>
@@ -105,18 +90,9 @@
     <t>运动</t>
   </si>
   <si>
-    <t>每天做其中一个</t>
-  </si>
-  <si>
-    <t>index book</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>usaco traning: fin C3</t>
-  </si>
-  <si>
     <t>On Stall</t>
   </si>
   <si>
@@ -127,10 +103,6 @@
   </si>
   <si>
     <t>end</t>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Remaining weeks</t>
@@ -141,69 +113,56 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目标</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完成</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4+4</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>18+20+45</t>
-  </si>
-  <si>
     <t>平均完成</t>
+  </si>
+  <si>
+    <t>End of plan</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>usaco traning: fin C4.2</t>
+  </si>
+  <si>
+    <t>截止目标</t>
+  </si>
+  <si>
+    <t>usaco hist, fin 2018-2019 Bronze</t>
+  </si>
+  <si>
+    <t>数（ｃａｌｃｕｌｕｓ）</t>
+  </si>
+  <si>
+    <t>ATTEND CLASSES AND READ BOOK</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>7 day, other not know</t>
+  </si>
+  <si>
+    <t>今天目标</t>
+  </si>
+  <si>
+    <t>今天完成</t>
+  </si>
+  <si>
+    <t>finish数学,物理一半</t>
+  </si>
+  <si>
+    <t>finish精讲与测试8年级部分</t>
+  </si>
+  <si>
+    <t>Not really finished, still unsure on total tasks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,13 +203,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -283,10 +235,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,15 +563,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="XEO1048560" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="XFD1048576" sqref="XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -621,19 +581,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44372</v>
-      </c>
-      <c r="C1" s="2">
         <v>44373</v>
       </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="E1" s="5">
+        <f>DATEDIF(B1,G1,"d")/7</f>
+        <v>9.4285714285714288</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2">
+        <v>44439</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
@@ -641,50 +604,50 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="I2" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="J2" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3">
         <v>58</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <f>(C3-D3)/E1</f>
-        <v>0</v>
+        <v>0.74242424242424243</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -699,26 +662,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9</v>
+      </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <f>(C4-D4)/E1</f>
-        <v>0</v>
+        <v>0.95454545454545447</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -730,28 +695,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <f>(C5-D5)/E1</f>
-        <v>0</v>
+        <v>0.53030303030303028</v>
       </c>
       <c r="F5" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -763,31 +728,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
         <f>(C6-D6)/E1</f>
-        <v>-1</v>
+        <v>1.3787878787878787</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -798,22 +763,22 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <f>6*16+10*3</f>
-        <v>126</v>
+        <f>6*16+10*8</f>
+        <v>176</v>
       </c>
       <c r="D7" s="1">
-        <f>6*16+10*2</f>
-        <v>116</v>
-      </c>
-      <c r="E7" s="3">
-        <f>(C7-D7)/E1</f>
-        <v>10</v>
+        <f>6*16+10*4</f>
+        <v>136</v>
+      </c>
+      <c r="E7" s="4">
+        <f>CEILING((C7-D7)/E1,1)</f>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
@@ -821,8 +786,8 @@
       <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>39</v>
+      <c r="H7" s="1">
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -830,23 +795,21 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
-        <f>3*8</f>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
-        <f>3*8</f>
-        <v>24</v>
-      </c>
-      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
         <f>(C8-D8)/E1</f>
-        <v>0</v>
+        <v>0.95454545454545447</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -860,16 +823,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -881,15 +844,15 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>15500</v>
@@ -897,18 +860,18 @@
       <c r="D10" s="3">
         <v>14218</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <f>(C10-D10)/E1</f>
-        <v>1282</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>135.96969696969697</v>
+      </c>
+      <c r="F10" s="1">
+        <v>136</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -916,16 +879,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <f>(C11-D11)/E1</f>
         <v>0</v>
       </c>
@@ -942,25 +905,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
         <v>15</v>
       </c>
       <c r="D12" s="3">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
         <f>(C12-D12)/E1</f>
-        <v>0</v>
+        <v>1.5909090909090908</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -977,65 +940,75 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45</v>
+      </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <f>(C13-D13)/E1</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>4.7727272727272725</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
+      <c r="H13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
+      <c r="A14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <f>(C14-D14)/E1</f>
+        <v>7.4242424242424239</v>
+      </c>
+      <c r="F14" s="6">
+        <v>7.4285714285714288</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <f>(C14-D14)/E1</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="1048576" spans="16384:16384">
       <c r="XFD1048576" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FD9000-9CFA-43EE-8170-970B14E25487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8A180E-B1DF-45D2-BF00-C740F455DFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
+    <workbookView xWindow="5730" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>date</t>
   </si>
@@ -60,15 +60,6 @@
     <t>练字</t>
   </si>
   <si>
-    <t>足球队</t>
-  </si>
-  <si>
-    <t>开始训练</t>
-  </si>
-  <si>
-    <t>完成训练</t>
-  </si>
-  <si>
     <t>墨墨</t>
   </si>
   <si>
@@ -91,12 +82,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>On Stall</t>
-  </si>
-  <si>
-    <t>Finished</t>
   </si>
   <si>
     <t>每天1(10*3+1000)或R</t>
@@ -109,10 +94,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Dunno if there are classes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>平均完成</t>
   </si>
   <si>
@@ -131,18 +112,12 @@
     <t>usaco hist, fin 2018-2019 Bronze</t>
   </si>
   <si>
-    <t>数（ｃａｌｃｕｌｕｓ）</t>
-  </si>
-  <si>
     <t>ATTEND CLASSES AND READ BOOK</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>7 day, other not know</t>
-  </si>
-  <si>
     <t>今天目标</t>
   </si>
   <si>
@@ -155,7 +130,31 @@
     <t>finish精讲与测试8年级部分</t>
   </si>
   <si>
-    <t>Not really finished, still unsure on total tasks</t>
+    <t>Starts 7/10</t>
+  </si>
+  <si>
+    <t>4R</t>
+  </si>
+  <si>
+    <t>6R</t>
+  </si>
+  <si>
+    <t>Starts 7/5</t>
+  </si>
+  <si>
+    <t>数（ｃａｌｃｕｌｕｓ）, 物</t>
+  </si>
+  <si>
+    <t>Princeton in 子主题, 7d assist, New Phyz</t>
+  </si>
+  <si>
+    <t>阅读</t>
+  </si>
+  <si>
+    <t>THOND, Antho, One of the 4 Rec Books</t>
+  </si>
+  <si>
+    <t>Only Antho at home and read-aloud, can find THOND online</t>
   </si>
 </sst>
 </file>
@@ -563,14 +562,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="XEO1048559" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="XFD1048576" sqref="XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
@@ -581,40 +580,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44373</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="5">
-        <f>DATEDIF(B1,G1,"d")/7</f>
-        <v>9.4285714285714288</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="2">
+        <v>44380</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5">
+        <f>DATEDIF(B1,F1,"d")/7</f>
+        <v>8.4285714285714288</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2">
         <v>44439</v>
       </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -623,13 +621,13 @@
         <v>4</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -637,17 +635,17 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3">
         <v>65</v>
       </c>
       <c r="D3" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4">
-        <f>(C3-D3)/E1</f>
-        <v>0.74242424242424243</v>
+        <f>(C3-D3)/D1</f>
+        <v>0.71186440677966101</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -660,9 +658,6 @@
       </c>
       <c r="I3" s="3">
         <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -670,32 +665,29 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3">
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <f>(C4-D4)/E1</f>
-        <v>0.95454545454545447</v>
+        <f>(C4-D4)/D1</f>
+        <v>0.94915254237288138</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -703,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -712,8 +704,8 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <f>(C5-D5)/E1</f>
-        <v>0.53030303030303028</v>
+        <f>(C5-D5)/D1</f>
+        <v>0.59322033898305082</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -726,9 +718,6 @@
       </c>
       <c r="I5" s="3">
         <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -736,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>29</v>
@@ -745,8 +734,8 @@
         <v>16</v>
       </c>
       <c r="E6" s="4">
-        <f>(C6-D6)/E1</f>
-        <v>1.3787878787878787</v>
+        <f>(C6-D6)/D1</f>
+        <v>1.5423728813559321</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -769,28 +758,28 @@
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <f>6*16+10*8</f>
-        <v>176</v>
+        <f>6*18+10*8</f>
+        <v>188</v>
       </c>
       <c r="D7" s="1">
-        <f>6*16+10*4</f>
-        <v>136</v>
+        <f>6*18+10*4</f>
+        <v>148</v>
       </c>
       <c r="E7" s="4">
-        <f>CEILING((C7-D7)/E1,1)</f>
-        <v>5</v>
+        <f>(C7-D7)/D1</f>
+        <v>4.7457627118644066</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
       </c>
       <c r="G7" s="3">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
       <c r="I7" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -805,8 +794,8 @@
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <f>(C8-D8)/E1</f>
-        <v>0.95454545454545447</v>
+        <f>(C8-D8)/D1</f>
+        <v>1.0677966101694916</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -821,194 +810,182 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="3">
+        <v>15500</v>
+      </c>
+      <c r="D9" s="3">
+        <v>14218</v>
+      </c>
+      <c r="E9" s="4">
+        <f>(C9-D9)/D1</f>
+        <v>152.10169491525423</v>
+      </c>
+      <c r="F9" s="1">
+        <v>136</v>
+      </c>
+      <c r="G9" s="1">
+        <v>82</v>
+      </c>
+      <c r="H9" s="1">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" customFormat="1">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <f>(C10-D10)/D1</f>
+        <v>0.94915254237288138</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" customFormat="1">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3">
-        <v>15500</v>
-      </c>
-      <c r="D10" s="3">
-        <v>14218</v>
-      </c>
-      <c r="E10" s="4">
-        <f>(C10-D10)/E1</f>
-        <v>135.96969696969697</v>
-      </c>
-      <c r="F10" s="1">
-        <v>136</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <f>(C11-D11)/D1</f>
+        <v>1.7796610169491525</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" customFormat="1">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <f>(C11-D11)/E1</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3">
-        <v>15</v>
+      <c r="C12" s="1">
+        <v>45</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="4">
-        <f>(C12-D12)/E1</f>
-        <v>1.5909090909090908</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+        <f>(C12-D12)/D1</f>
+        <v>5.3389830508474576</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
+    <row r="13" spans="1:10" customFormat="1">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="4">
-        <f>(C13-D13)/E1</f>
-        <v>4.7727272727272725</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6</v>
+        <f>(C13-D13)/D1</f>
+        <v>3.5593220338983049</v>
+      </c>
+      <c r="F13" s="6">
+        <v>5</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3">
-        <v>70</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <f>(C14-D14)/E1</f>
-        <v>7.4242424242424239</v>
-      </c>
-      <c r="F14" s="6">
-        <v>7.4285714285714288</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="J14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="16" spans="1:10" customFormat="1"/>
     <row r="1048576" spans="16384:16384">
       <c r="XFD1048576" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8A180E-B1DF-45D2-BF00-C740F455DFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852947A9-E391-4B88-8C6C-4AA2FE77085C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>date</t>
   </si>
@@ -130,18 +130,6 @@
     <t>finish精讲与测试8年级部分</t>
   </si>
   <si>
-    <t>Starts 7/10</t>
-  </si>
-  <si>
-    <t>4R</t>
-  </si>
-  <si>
-    <t>6R</t>
-  </si>
-  <si>
-    <t>Starts 7/5</t>
-  </si>
-  <si>
     <t>数（ｃａｌｃｕｌｕｓ）, 物</t>
   </si>
   <si>
@@ -155,6 +143,9 @@
   </si>
   <si>
     <t>Only Antho at home and read-aloud, can find THOND online</t>
+  </si>
+  <si>
+    <t>7R</t>
   </si>
 </sst>
 </file>
@@ -562,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="XEO1048559" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="XEJ1048549" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="XFD1048576" sqref="XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -580,14 +571,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44380</v>
+        <v>44382</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="5">
         <f>DATEDIF(B1,F1,"d")/7</f>
-        <v>8.4285714285714288</v>
+        <v>8.1428571428571423</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -645,16 +636,16 @@
       </c>
       <c r="E3" s="4">
         <f>(C3-D3)/D1</f>
-        <v>0.71186440677966101</v>
+        <v>0.73684210526315796</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -671,17 +662,17 @@
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="4">
         <f>(C4-D4)/D1</f>
-        <v>0.94915254237288138</v>
+        <v>0.85964912280701755</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -701,14 +692,14 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
         <f>(C5-D5)/D1</f>
-        <v>0.59322033898305082</v>
+        <v>0.49122807017543862</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -731,14 +722,14 @@
         <v>29</v>
       </c>
       <c r="D6" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4">
         <f>(C6-D6)/D1</f>
-        <v>1.5423728813559321</v>
+        <v>1.4736842105263159</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -762,24 +753,24 @@
         <v>188</v>
       </c>
       <c r="D7" s="1">
-        <f>6*18+10*4</f>
-        <v>148</v>
+        <f>6*18+10*5</f>
+        <v>158</v>
       </c>
       <c r="E7" s="4">
         <f>(C7-D7)/D1</f>
-        <v>4.7457627118644066</v>
+        <v>3.6842105263157898</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
       </c>
       <c r="G7" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -791,11 +782,11 @@
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4">
         <f>(C8-D8)/D1</f>
-        <v>1.0677966101694916</v>
+        <v>0.98245614035087725</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -810,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" customFormat="1">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -821,26 +812,26 @@
         <v>15500</v>
       </c>
       <c r="D9" s="3">
-        <v>14218</v>
+        <v>14307</v>
       </c>
       <c r="E9" s="4">
         <f>(C9-D9)/D1</f>
-        <v>152.10169491525423</v>
+        <v>146.50877192982458</v>
       </c>
       <c r="F9" s="1">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G9" s="1">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I9" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" customFormat="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -855,10 +846,10 @@
       </c>
       <c r="E10" s="4">
         <f>(C10-D10)/D1</f>
-        <v>0.94915254237288138</v>
+        <v>0.98245614035087725</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -869,11 +860,8 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" customFormat="1">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -888,25 +876,22 @@
       </c>
       <c r="E11" s="4">
         <f>(C11-D11)/D1</f>
-        <v>1.7796610169491525</v>
+        <v>1.8421052631578949</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" customFormat="1">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -917,17 +902,17 @@
         <v>45</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12" s="4">
         <f>(C12-D12)/D1</f>
-        <v>5.3389830508474576</v>
+        <v>4.9122807017543861</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>29</v>
@@ -936,9 +921,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" customFormat="1">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
@@ -947,42 +932,41 @@
         <v>30</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="4">
         <f>(C13-D13)/D1</f>
-        <v>3.5593220338983049</v>
+        <v>3.0701754385964914</v>
       </c>
       <c r="F13" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" customFormat="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="J14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" customFormat="1"/>
+        <v>38</v>
+      </c>
+    </row>
     <row r="1048576" spans="16384:16384">
       <c r="XFD1048576" t="s">
         <v>20</v>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852947A9-E391-4B88-8C6C-4AA2FE77085C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990200FD-C92C-449B-8283-AEA40BD80BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>date</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>7R</t>
+  </si>
+  <si>
+    <t>Fin HW</t>
+  </si>
+  <si>
+    <t>5R</t>
+  </si>
+  <si>
+    <t>Didn't put watch on for today</t>
   </si>
 </sst>
 </file>
@@ -553,9 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="XEJ1048549" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="XFD1048576" sqref="XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -571,14 +578,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44382</v>
+        <v>44386</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="5">
         <f>DATEDIF(B1,F1,"d")/7</f>
-        <v>8.1428571428571423</v>
+        <v>7.5714285714285712</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -636,7 +643,7 @@
       </c>
       <c r="E3" s="4">
         <f>(C3-D3)/D1</f>
-        <v>0.73684210526315796</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -645,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -666,7 +673,7 @@
       </c>
       <c r="E4" s="4">
         <f>(C4-D4)/D1</f>
-        <v>0.85964912280701755</v>
+        <v>0.92452830188679247</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -696,7 +703,7 @@
       </c>
       <c r="E5" s="4">
         <f>(C5-D5)/D1</f>
-        <v>0.49122807017543862</v>
+        <v>0.52830188679245282</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -722,17 +729,17 @@
         <v>29</v>
       </c>
       <c r="D6" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4">
         <f>(C6-D6)/D1</f>
-        <v>1.4736842105263159</v>
+        <v>1.3207547169811322</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -758,16 +765,16 @@
       </c>
       <c r="E7" s="4">
         <f>(C7-D7)/D1</f>
-        <v>3.6842105263157898</v>
+        <v>3.9622641509433962</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -782,17 +789,17 @@
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4">
         <f>(C8-D8)/D1</f>
-        <v>0.98245614035087725</v>
+        <v>0.92452830188679247</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -816,13 +823,13 @@
       </c>
       <c r="E9" s="4">
         <f>(C9-D9)/D1</f>
-        <v>146.50877192982458</v>
+        <v>157.56603773584905</v>
       </c>
       <c r="F9" s="1">
         <v>146</v>
       </c>
       <c r="G9" s="1">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="H9" s="1">
         <v>20</v>
@@ -846,19 +853,22 @@
       </c>
       <c r="E10" s="4">
         <f>(C10-D10)/D1</f>
-        <v>0.98245614035087725</v>
+        <v>1.0566037735849056</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="4">
+        <v>0.5</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -876,13 +886,13 @@
       </c>
       <c r="E11" s="4">
         <f>(C11-D11)/D1</f>
-        <v>1.8421052631578949</v>
+        <v>1.9811320754716981</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -906,19 +916,22 @@
       </c>
       <c r="E12" s="4">
         <f>(C12-D12)/D1</f>
-        <v>4.9122807017543861</v>
+        <v>5.2830188679245289</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -936,16 +949,16 @@
       </c>
       <c r="E13" s="4">
         <f>(C13-D13)/D1</f>
-        <v>3.0701754385964914</v>
+        <v>3.3018867924528301</v>
       </c>
       <c r="F13" s="6">
         <v>3</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990200FD-C92C-449B-8283-AEA40BD80BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7294D26-2587-4ADA-B97B-02787C03BCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>date</t>
   </si>
@@ -145,16 +145,7 @@
     <t>Only Antho at home and read-aloud, can find THOND online</t>
   </si>
   <si>
-    <t>7R</t>
-  </si>
-  <si>
-    <t>Fin HW</t>
-  </si>
-  <si>
-    <t>5R</t>
-  </si>
-  <si>
-    <t>Didn't put watch on for today</t>
+    <t>6R+1</t>
   </si>
 </sst>
 </file>
@@ -562,7 +553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="XEJ1048549" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="XFD1048576" sqref="XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -578,14 +571,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44386</v>
+        <v>44389</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="5">
         <f>DATEDIF(B1,F1,"d")/7</f>
-        <v>7.5714285714285712</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -639,11 +632,11 @@
         <v>65</v>
       </c>
       <c r="D3" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4">
         <f>(C3-D3)/D1</f>
-        <v>0.79245283018867929</v>
+        <v>0.7</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -673,10 +666,10 @@
       </c>
       <c r="E4" s="4">
         <f>(C4-D4)/D1</f>
-        <v>0.92452830188679247</v>
+        <v>0.98</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -703,7 +696,7 @@
       </c>
       <c r="E5" s="4">
         <f>(C5-D5)/D1</f>
-        <v>0.52830188679245282</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -729,20 +722,20 @@
         <v>29</v>
       </c>
       <c r="D6" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4">
         <f>(C6-D6)/D1</f>
-        <v>1.3207547169811322</v>
+        <v>1.1199999999999999</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -765,7 +758,7 @@
       </c>
       <c r="E7" s="4">
         <f>(C7-D7)/D1</f>
-        <v>3.9622641509433962</v>
+        <v>4.2</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
@@ -793,7 +786,7 @@
       </c>
       <c r="E8" s="4">
         <f>(C8-D8)/D1</f>
-        <v>0.92452830188679247</v>
+        <v>0.98</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -823,7 +816,7 @@
       </c>
       <c r="E9" s="4">
         <f>(C9-D9)/D1</f>
-        <v>157.56603773584905</v>
+        <v>167.01999999999998</v>
       </c>
       <c r="F9" s="1">
         <v>146</v>
@@ -846,29 +839,26 @@
         <v>14</v>
       </c>
       <c r="C10" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
         <f>(C10-D10)/D1</f>
-        <v>1.0566037735849056</v>
+        <v>1.96</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <v>0.5</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -882,17 +872,17 @@
         <v>15</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E11" s="4">
         <f>(C11-D11)/D1</f>
-        <v>1.9811320754716981</v>
+        <v>1.4</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
       </c>
       <c r="G11" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -912,27 +902,25 @@
         <v>45</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E12" s="4">
         <f>(C12-D12)/D1</f>
-        <v>5.2830188679245289</v>
+        <v>4.62</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
+      <c r="G12" s="1">
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
@@ -945,20 +933,20 @@
         <v>30</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4">
         <f>(C13-D13)/D1</f>
-        <v>3.3018867924528301</v>
+        <v>3.0799999999999996</v>
       </c>
       <c r="F13" s="6">
         <v>3</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7294D26-2587-4ADA-B97B-02787C03BCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F539F9-D44D-4C83-ADAD-B442FC33413C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -553,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="XEJ1048549" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="XEJ1048550" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="XFD1048576" sqref="XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -782,17 +782,17 @@
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="4">
         <f>(C8-D8)/D1</f>
-        <v>0.98</v>
+        <v>0.84</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F539F9-D44D-4C83-ADAD-B442FC33413C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{066E2071-D244-471E-849E-F850F125C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
   </bookViews>
@@ -812,23 +812,23 @@
         <v>15500</v>
       </c>
       <c r="D9" s="3">
-        <v>14307</v>
+        <v>14415</v>
       </c>
       <c r="E9" s="4">
         <f>(C9-D9)/D1</f>
-        <v>167.01999999999998</v>
+        <v>151.9</v>
       </c>
       <c r="F9" s="1">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G9" s="1">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>20</v>
       </c>
       <c r="I9" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{066E2071-D244-471E-849E-F850F125C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="plan" sheetId="1" r:id="rId1"/>
+    <sheet name="plan" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>date</t>
   </si>
@@ -91,7 +91,6 @@
   </si>
   <si>
     <t>Remaining weeks</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>平均完成</t>
@@ -146,6 +145,12 @@
   </si>
   <si>
     <t>6R+1</t>
+  </si>
+  <si>
+    <t>1 1/2</t>
+  </si>
+  <si>
+    <t>3R+1</t>
   </si>
 </sst>
 </file>
@@ -161,9 +166,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -211,15 +216,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -228,7 +255,7 @@
     <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -238,11 +265,83 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -550,35 +649,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="XEJ1048550" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="XFD1048576" sqref="XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="XEJ1048550">
+      <selection pane="topLeft" activeCell="XFD1048576" sqref="XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.428571428571427" customWidth="1"/>
+    <col min="2" max="2" width="30.571428571428573" customWidth="1"/>
+    <col min="3" max="3" width="13.571428571428571" customWidth="1"/>
+    <col min="4" max="5" width="13.857142857142858" customWidth="1"/>
+    <col min="6" max="6" width="9.285714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44389</v>
+        <v>44393</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="5">
         <f>DATEDIF(B1,F1,"d")/7</f>
-        <v>7.1428571428571432</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -589,7 +688,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -621,7 +720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -636,13 +735,13 @@
       </c>
       <c r="E3" s="4">
         <f>(C3-D3)/D1</f>
-        <v>0.7</v>
+        <v>0.76086956521739135</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -651,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -666,13 +765,13 @@
       </c>
       <c r="E4" s="4">
         <f>(C4-D4)/D1</f>
-        <v>0.98</v>
+        <v>1.0652173913043479</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -681,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -696,7 +795,7 @@
       </c>
       <c r="E5" s="4">
         <f>(C5-D5)/D1</f>
-        <v>0.55999999999999994</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -711,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -726,13 +825,13 @@
       </c>
       <c r="E6" s="4">
         <f>(C6-D6)/D1</f>
-        <v>1.1199999999999999</v>
+        <v>1.2173913043478262</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -741,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -758,7 +857,7 @@
       </c>
       <c r="E7" s="4">
         <f>(C7-D7)/D1</f>
-        <v>4.2</v>
+        <v>4.5652173913043477</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
@@ -773,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -786,7 +885,7 @@
       </c>
       <c r="E8" s="4">
         <f>(C8-D8)/D1</f>
-        <v>0.84</v>
+        <v>0.91304347826086962</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -801,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -816,13 +915,13 @@
       </c>
       <c r="E9" s="4">
         <f>(C9-D9)/D1</f>
-        <v>151.9</v>
+        <v>165.10869565217391</v>
       </c>
       <c r="F9" s="1">
         <v>152</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1">
         <v>20</v>
@@ -831,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -846,22 +945,22 @@
       </c>
       <c r="E10" s="4">
         <f>(C10-D10)/D1</f>
-        <v>1.96</v>
+        <v>2.1304347826086958</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="G10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -876,22 +975,22 @@
       </c>
       <c r="E11" s="4">
         <f>(C11-D11)/D1</f>
-        <v>1.4</v>
+        <v>1.5217391304347827</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -906,13 +1005,13 @@
       </c>
       <c r="E12" s="4">
         <f>(C12-D12)/D1</f>
-        <v>4.62</v>
+        <v>5.0217391304347831</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>29</v>
@@ -922,7 +1021,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -937,16 +1036,16 @@
       </c>
       <c r="E13" s="4">
         <f>(C13-D13)/D1</f>
-        <v>3.0799999999999996</v>
+        <v>3.347826086956522</v>
       </c>
       <c r="F13" s="6">
         <v>3</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -955,7 +1054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -968,14 +1067,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1048576" spans="16384:16384">
+    <row r="1048576" spans="26:26 16384:16384" ht="15">
+      <c r="Z1048576" t="s">
+        <v>20</v>
+      </c>
       <c r="XFD1048576" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baron\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A530DB6-931F-448C-9A20-BD4A1176C2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="plan" sheetId="1" r:id="rId3"/>
+    <sheet name="plan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>date</t>
   </si>
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,23 +166,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -216,132 +203,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -354,7 +247,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -649,23 +542,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" topLeftCell="XEJ1048550">
-      <selection pane="topLeft" activeCell="XFD1048576" sqref="XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Z1048571" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z1048576" sqref="Z1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.428571428571427" customWidth="1"/>
-    <col min="2" max="2" width="30.571428571428573" customWidth="1"/>
-    <col min="3" max="3" width="13.571428571428571" customWidth="1"/>
-    <col min="4" max="5" width="13.857142857142858" customWidth="1"/>
-    <col min="6" max="6" width="9.285714285714286" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +581,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -720,7 +613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -750,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -780,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -810,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -840,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -872,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -900,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -930,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -960,7 +853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -990,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1021,7 +914,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1054,7 +947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1067,16 +960,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1048576" spans="26:26 16384:16384" ht="15">
-      <c r="Z1048576" t="s">
-        <v>20</v>
-      </c>
+    <row r="1048576" spans="16384:16384">
       <c r="XFD1048576" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baron\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A530DB6-931F-448C-9A20-BD4A1176C2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A55B89D-978C-469E-BEB1-781EFD744A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>date</t>
   </si>
@@ -147,10 +147,7 @@
     <t>6R+1</t>
   </si>
   <si>
-    <t>1 1/2</t>
-  </si>
-  <si>
-    <t>3R+1</t>
+    <t>4R+1</t>
   </si>
 </sst>
 </file>
@@ -545,9 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1048571" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z1048576" sqref="Z1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -634,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -724,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -759,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -787,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -814,10 +809,10 @@
         <v>152</v>
       </c>
       <c r="G9" s="1">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="H9" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -843,14 +838,14 @@
       <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>40</v>
+      <c r="G10" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -877,10 +872,10 @@
         <v>5</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -904,7 +899,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>29</v>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baron\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive\Documents\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A55B89D-978C-469E-BEB1-781EFD744A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD55E28-1E40-43F5-B1FB-842BED59857A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC6208CD-9C2F-4E2C-83A5-137099040B52}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>date</t>
   </si>
@@ -91,6 +91,7 @@
   </si>
   <si>
     <t>Remaining weeks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>平均完成</t>
@@ -114,18 +115,12 @@
     <t>ATTEND CLASSES AND READ BOOK</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>今天目标</t>
   </si>
   <si>
     <t>今天完成</t>
   </si>
   <si>
-    <t>finish数学,物理一半</t>
-  </si>
-  <si>
     <t>finish精讲与测试8年级部分</t>
   </si>
   <si>
@@ -144,17 +139,17 @@
     <t>Only Antho at home and read-aloud, can find THOND online</t>
   </si>
   <si>
-    <t>6R+1</t>
-  </si>
-  <si>
-    <t>4R+1</t>
+    <t>finish数学,化学一半</t>
+  </si>
+  <si>
+    <t>4R+3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +162,19 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -211,24 +219,24 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -244,7 +252,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -542,15 +550,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F14145D-5A27-4468-B288-84D40C4645A4}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -558,14 +568,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="5">
         <f>DATEDIF(B1,F1,"d")/7</f>
-        <v>6.5714285714285712</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
@@ -599,10 +609,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>18</v>
@@ -619,20 +629,20 @@
         <v>65</v>
       </c>
       <c r="D3" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="4">
         <f>(C3-D3)/D1</f>
-        <v>0.76086956521739135</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -649,17 +659,17 @@
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4">
         <f>(C4-D4)/D1</f>
-        <v>1.0652173913043479</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -673,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -683,10 +693,10 @@
       </c>
       <c r="E5" s="4">
         <f>(C5-D5)/D1</f>
-        <v>0.60869565217391308</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -703,26 +713,26 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
         <v>29</v>
       </c>
       <c r="D6" s="3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4">
         <f>(C6-D6)/D1</f>
-        <v>1.2173913043478262</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -740,24 +750,24 @@
         <v>188</v>
       </c>
       <c r="D7" s="1">
-        <f>6*18+10*5</f>
-        <v>158</v>
+        <f>6*18+10*6</f>
+        <v>168</v>
       </c>
       <c r="E7" s="4">
         <f>(C7-D7)/D1</f>
-        <v>4.5652173913043477</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
       </c>
       <c r="G7" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -769,11 +779,11 @@
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4">
         <f>(C8-D8)/D1</f>
-        <v>0.91304347826086962</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -782,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -799,20 +809,20 @@
         <v>15500</v>
       </c>
       <c r="D9" s="3">
-        <v>14415</v>
+        <v>14607</v>
       </c>
       <c r="E9" s="4">
         <f>(C9-D9)/D1</f>
-        <v>165.10869565217391</v>
+        <v>148.83333333333334</v>
       </c>
       <c r="F9" s="1">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G9" s="1">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -829,23 +839,23 @@
         <v>15</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="4">
         <f>(C10-D10)/D1</f>
-        <v>2.1304347826086958</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="H10" s="5">
-        <v>2</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1.5</v>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -859,23 +869,23 @@
         <v>15</v>
       </c>
       <c r="D11" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11" s="4">
         <f>(C11-D11)/D1</f>
-        <v>1.5217391304347827</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
       </c>
       <c r="G11" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -889,29 +899,29 @@
         <v>45</v>
       </c>
       <c r="D12" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4">
         <f>(C12-D12)/D1</f>
-        <v>5.0217391304347831</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
@@ -920,17 +930,17 @@
         <v>30</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4">
         <f>(C13-D13)/D1</f>
-        <v>3.347826086956522</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="F13" s="6">
         <v>3</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -939,20 +949,20 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1048576" spans="16384:16384">
@@ -961,6 +971,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
